--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Documents\Github\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE9390-1B95-44E4-86DE-F385B7719414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716467FB-AF01-4981-9BD5-6E3C98206EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25410" yWindow="1560" windowWidth="28620" windowHeight="13560" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Opgave</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Design LQR controller</t>
   </si>
   <si>
-    <t>Test af system med mobil robot</t>
-  </si>
-  <si>
     <t>Design objektdetektering</t>
   </si>
   <si>
@@ -85,13 +82,16 @@
   </si>
   <si>
     <t>Skriv rapport</t>
+  </si>
+  <si>
+    <t>Benyt sensor data Lidar til at tage handlinger for Robot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +99,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,14 +135,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,12 +464,12 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
@@ -462,24 +486,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>44456</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>44456</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -487,7 +511,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>44470</v>
       </c>
       <c r="C4" t="s">
@@ -495,33 +519,33 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>44470</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>44470</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44470</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44456</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -529,21 +553,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44484</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44470</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44500</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44484</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -551,9 +575,9 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
         <v>44500</v>
       </c>
       <c r="C10" t="s">
@@ -562,10 +586,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44500</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
         <v>44531</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Documents\Github\Afgangsprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil\Documents\GitHub\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716467FB-AF01-4981-9BD5-6E3C98206EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FEE0E2-61ED-40C5-88B8-028B26CC1C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Opgave</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Benyt sensor data Lidar til at tage handlinger for Robot</t>
+  </si>
+  <si>
+    <t>Evaluering:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hvor præcis er enkoder praktisk ift. teoretisk </t>
+  </si>
+  <si>
+    <t>Hvis robotten bliver kodet til at køre langs en strækning, hvor godt overholder den slutpunktet?</t>
   </si>
 </sst>
 </file>
@@ -461,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03938F16-7FDC-437A-83B4-65EB9AA7A70D}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +483,7 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +493,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -495,8 +507,11 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -507,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -518,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -529,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -539,8 +554,11 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -551,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -562,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -573,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -584,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -595,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -606,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil\Documents\GitHub\Afgangsprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Documents\Github\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FEE0E2-61ED-40C5-88B8-028B26CC1C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAFBCF7-8EE3-4888-9528-5114B4FB36A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Opgave</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Hvis robotten bliver kodet til at køre langs en strækning, hvor godt overholder den slutpunktet?</t>
+  </si>
+  <si>
+    <t>Hvad er reaktionstiden?</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +535,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -563,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>44456</v>
+        <v>44486</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Documents\Github\Afgangsprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Documents\Diplomingeniør_lokal\GitHubDesktop\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAFBCF7-8EE3-4888-9528-5114B4FB36A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C727DCC-725F-49BE-89B7-4E85F2548C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -120,12 +120,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +136,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,21 +153,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,7 +485,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,13 +535,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>44470</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -565,13 +574,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>44486</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -587,24 +596,24 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>44484</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>44500</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Documents\Diplomingeniør_lokal\GitHubDesktop\Afgangsprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C727DCC-725F-49BE-89B7-4E85F2548C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3740096-7204-424E-BFA7-3F32CCA5D1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{581C5342-7C54-420F-B1DC-4DB9E8C08EB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Opgave</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Skriv rapport</t>
   </si>
   <si>
-    <t>Benyt sensor data Lidar til at tage handlinger for Robot</t>
-  </si>
-  <si>
     <t>Evaluering:</t>
   </si>
   <si>
@@ -97,12 +94,30 @@
   </si>
   <si>
     <t>Hvad er reaktionstiden?</t>
+  </si>
+  <si>
+    <t>Sensor detekterer noget, opdaterer kort og undgår kollision</t>
+  </si>
+  <si>
+    <t>Partikelfilter</t>
+  </si>
+  <si>
+    <t>Brushfire + voronoi</t>
+  </si>
+  <si>
+    <t>Test system i samspil</t>
+  </si>
+  <si>
+    <t>Hvor mange forskellige algoritmer kan køre samtidigt på RPI4? Hvad er hastigheden?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,13 +135,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,11 +151,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -156,21 +166,20 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,7 +494,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +579,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +595,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>44470</v>
@@ -596,24 +605,24 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>44484</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44500</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -630,12 +639,42 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44555</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B15" s="3">
         <v>44531</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -652,5 +691,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>